--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -716,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>330400</v>
+        <v>323600</v>
       </c>
       <c r="E8" s="3">
-        <v>215900</v>
+        <v>211400</v>
       </c>
       <c r="F8" s="3">
-        <v>53100</v>
+        <v>52000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>315300</v>
+        <v>308800</v>
       </c>
       <c r="E9" s="3">
-        <v>219700</v>
+        <v>215200</v>
       </c>
       <c r="F9" s="3">
-        <v>55100</v>
+        <v>53900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15100</v>
+        <v>14800</v>
       </c>
       <c r="E10" s="3">
         <v>-3800</v>
       </c>
       <c r="F10" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -942,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>473900</v>
+        <v>464100</v>
       </c>
       <c r="E17" s="3">
-        <v>347700</v>
+        <v>340600</v>
       </c>
       <c r="F17" s="3">
-        <v>93500</v>
+        <v>91600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -971,13 +971,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-143500</v>
+        <v>-140600</v>
       </c>
       <c r="E18" s="3">
-        <v>-131800</v>
+        <v>-129100</v>
       </c>
       <c r="F18" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1013,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1042,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-125500</v>
+        <v>-122900</v>
       </c>
       <c r="E21" s="3">
-        <v>-115500</v>
+        <v>-113100</v>
       </c>
       <c r="F21" s="3">
-        <v>-37600</v>
+        <v>-36900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1100,13 +1100,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145700</v>
+        <v>-142700</v>
       </c>
       <c r="E23" s="3">
-        <v>-132900</v>
+        <v>-130200</v>
       </c>
       <c r="F23" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="E24" s="3">
         <v>-1300</v>
@@ -1187,13 +1187,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-135900</v>
+        <v>-133100</v>
       </c>
       <c r="E26" s="3">
-        <v>-131600</v>
+        <v>-128900</v>
       </c>
       <c r="F26" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1216,13 +1216,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-135900</v>
+        <v>-133100</v>
       </c>
       <c r="E27" s="3">
-        <v>-131600</v>
+        <v>-128900</v>
       </c>
       <c r="F27" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1390,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-135900</v>
+        <v>-133100</v>
       </c>
       <c r="E33" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="F33" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1448,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-135900</v>
+        <v>-133100</v>
       </c>
       <c r="E35" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="F35" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80300</v>
+        <v>78700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>169500</v>
+        <v>166000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>301400</v>
+        <v>295200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1711,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>243100</v>
+        <v>238100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1769,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>206400</v>
+        <v>202100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1914,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>762700</v>
+        <v>746900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1998,7 +1998,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>174100</v>
+        <v>170500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78800</v>
+        <v>77100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>284900</v>
+        <v>279000</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64500</v>
+        <v>63200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>355000</v>
+        <v>347600</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2388,7 +2388,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53400</v>
+        <v>52300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2504,7 +2504,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>407700</v>
+        <v>399300</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2596,13 +2596,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-135900</v>
+        <v>-133100</v>
       </c>
       <c r="E81" s="3">
-        <v>-136700</v>
+        <v>-133900</v>
       </c>
       <c r="F81" s="3">
-        <v>-41000</v>
+        <v>-40100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2638,10 +2638,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="E83" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
         <v>3300</v>
@@ -2812,13 +2812,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-73900</v>
+        <v>-72300</v>
       </c>
       <c r="E89" s="3">
-        <v>-154200</v>
+        <v>-151100</v>
       </c>
       <c r="F89" s="3">
-        <v>-41600</v>
+        <v>-40700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2854,13 +2854,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46200</v>
+        <v>-45200</v>
       </c>
       <c r="E91" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-158700</v>
+        <v>-155400</v>
       </c>
       <c r="E94" s="3">
-        <v>-48400</v>
+        <v>-47400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3099,13 +3099,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="E100" s="3">
-        <v>480800</v>
+        <v>470900</v>
       </c>
       <c r="F100" s="3">
-        <v>160800</v>
+        <v>157500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3157,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-243800</v>
+        <v>-238800</v>
       </c>
       <c r="E102" s="3">
-        <v>278200</v>
+        <v>272400</v>
       </c>
       <c r="F102" s="3">
-        <v>117600</v>
+        <v>115100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,22 +711,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>323600</v>
+        <v>814900</v>
       </c>
       <c r="E8" s="3">
-        <v>211400</v>
+        <v>302800</v>
       </c>
       <c r="F8" s="3">
-        <v>52000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>197900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>48700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,22 +743,25 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>308800</v>
+        <v>784400</v>
       </c>
       <c r="E9" s="3">
-        <v>215200</v>
+        <v>288900</v>
       </c>
       <c r="F9" s="3">
-        <v>53900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>201400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,22 +775,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14800</v>
+        <v>30500</v>
       </c>
       <c r="E10" s="3">
-        <v>-3800</v>
+        <v>13800</v>
       </c>
       <c r="F10" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +962,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>464100</v>
+        <v>1217500</v>
       </c>
       <c r="E17" s="3">
-        <v>340600</v>
+        <v>434300</v>
       </c>
       <c r="F17" s="3">
-        <v>91600</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>318700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>85700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,22 +992,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-140600</v>
+        <v>-402600</v>
       </c>
       <c r="E18" s="3">
-        <v>-129100</v>
+        <v>-131500</v>
       </c>
       <c r="F18" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-120800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-37000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,23 +1040,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>-267200</v>
       </c>
       <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,22 +1070,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-122900</v>
+        <v>-590400</v>
       </c>
       <c r="E21" s="3">
-        <v>-113100</v>
+        <v>-115000</v>
       </c>
       <c r="F21" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-105900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-34500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,22 +1134,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-142700</v>
+        <v>-669700</v>
       </c>
       <c r="E23" s="3">
-        <v>-130200</v>
+        <v>-133500</v>
       </c>
       <c r="F23" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-121800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-37500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1166,25 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9600</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>-1300</v>
+        <v>-8900</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1230,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-133100</v>
+        <v>-670900</v>
       </c>
       <c r="E26" s="3">
-        <v>-128900</v>
+        <v>-124600</v>
       </c>
       <c r="F26" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-120600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-37500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1262,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-133100</v>
+        <v>-670900</v>
       </c>
       <c r="E27" s="3">
-        <v>-128900</v>
+        <v>-124600</v>
       </c>
       <c r="F27" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-120600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-37500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,19 +1326,22 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-4600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,23 +1422,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>267200</v>
       </c>
       <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,22 +1454,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-133100</v>
+        <v>-670900</v>
       </c>
       <c r="E33" s="3">
-        <v>-133900</v>
+        <v>-124600</v>
       </c>
       <c r="F33" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-125300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-37500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1518,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-133100</v>
+        <v>-670900</v>
       </c>
       <c r="E35" s="3">
-        <v>-133900</v>
+        <v>-124600</v>
       </c>
       <c r="F35" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-125300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-37500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,16 +1617,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78700</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>235400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>73600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,16 +1711,19 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>166000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>411100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>155300</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1647,8 +1743,11 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,16 +1775,19 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>295200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>774600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>276200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1705,16 +1807,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11600</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1734,16 +1839,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>238100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>333000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>222800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1763,16 +1871,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>202100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>319600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>189100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,16 +2031,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>746900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>1439500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>699000</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,16 +2093,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>96400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>29300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1992,16 +2123,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>170500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>220800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>159600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2021,16 +2155,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>23200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>72200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2050,16 +2187,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>279000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>340400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>261100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2079,16 +2219,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63200</v>
+        <v>169600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>59100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,16 +2251,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>70800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,16 +2379,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>347600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>580700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>325300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,16 +2553,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52300</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>-753900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>48900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,16 +2681,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>399300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>858800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>373700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,22 +2782,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-133100</v>
+        <v>-670900</v>
       </c>
       <c r="E81" s="3">
-        <v>-133900</v>
+        <v>-124600</v>
       </c>
       <c r="F81" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-125300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-37500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,22 +2830,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19700</v>
+        <v>79300</v>
       </c>
       <c r="E83" s="3">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="F83" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3020,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72300</v>
+        <v>-678300</v>
       </c>
       <c r="E89" s="3">
-        <v>-151100</v>
+        <v>-67700</v>
       </c>
       <c r="F89" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-141400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-38100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,23 +3068,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45200</v>
+        <v>-36600</v>
       </c>
       <c r="E91" s="3">
-        <v>-23400</v>
+        <v>-42300</v>
       </c>
       <c r="F91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,22 +3162,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-155400</v>
+        <v>-286700</v>
       </c>
       <c r="E94" s="3">
-        <v>-47400</v>
+        <v>-145400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-44300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,22 +3336,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11100</v>
+        <v>903900</v>
       </c>
       <c r="E100" s="3">
-        <v>470900</v>
+        <v>-10400</v>
       </c>
       <c r="F100" s="3">
-        <v>157500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>440600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>147400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3122,51 +3368,57 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-238800</v>
+        <v>-62200</v>
       </c>
       <c r="E102" s="3">
-        <v>272400</v>
+        <v>-223500</v>
       </c>
       <c r="F102" s="3">
-        <v>115100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>254900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>107700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,25 +715,28 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>814900</v>
+        <v>742900</v>
       </c>
       <c r="E8" s="3">
-        <v>302800</v>
+        <v>789900</v>
       </c>
       <c r="F8" s="3">
-        <v>197900</v>
+        <v>293600</v>
       </c>
       <c r="G8" s="3">
-        <v>48700</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>191900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>47200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -746,25 +750,28 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>784400</v>
+        <v>739300</v>
       </c>
       <c r="E9" s="3">
-        <v>288900</v>
+        <v>760500</v>
       </c>
       <c r="F9" s="3">
-        <v>201400</v>
+        <v>280200</v>
       </c>
       <c r="G9" s="3">
-        <v>50500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>195300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>48900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -778,26 +785,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30500</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>13800</v>
+        <v>29400</v>
       </c>
       <c r="F10" s="3">
-        <v>-3500</v>
+        <v>13400</v>
       </c>
       <c r="G10" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,25 +989,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1217500</v>
+        <v>1200600</v>
       </c>
       <c r="E17" s="3">
-        <v>434300</v>
+        <v>1179800</v>
       </c>
       <c r="F17" s="3">
-        <v>318700</v>
+        <v>421100</v>
       </c>
       <c r="G17" s="3">
-        <v>85700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>309000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>83100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -995,25 +1022,28 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-402600</v>
+        <v>-457800</v>
       </c>
       <c r="E18" s="3">
-        <v>-131500</v>
+        <v>-389900</v>
       </c>
       <c r="F18" s="3">
-        <v>-120800</v>
+        <v>-127500</v>
       </c>
       <c r="G18" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-117200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-35900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,26 +1074,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-267200</v>
+        <v>160900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-259800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,25 +1107,28 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-590400</v>
+        <v>-97000</v>
       </c>
       <c r="E21" s="3">
-        <v>-115000</v>
+        <v>-573000</v>
       </c>
       <c r="F21" s="3">
-        <v>-105900</v>
+        <v>-111500</v>
       </c>
       <c r="G21" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-102700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-33400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,25 +1177,28 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-669700</v>
+        <v>-296900</v>
       </c>
       <c r="E23" s="3">
-        <v>-133500</v>
+        <v>-649700</v>
       </c>
       <c r="F23" s="3">
-        <v>-121800</v>
+        <v>-129500</v>
       </c>
       <c r="G23" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-118100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-36400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1169,25 +1212,28 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>-9500</v>
       </c>
       <c r="E24" s="3">
-        <v>-8900</v>
+        <v>-6700</v>
       </c>
       <c r="F24" s="3">
-        <v>-1200</v>
+        <v>-8700</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>-1100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,25 +1282,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-670900</v>
+        <v>-287400</v>
       </c>
       <c r="E26" s="3">
-        <v>-124600</v>
+        <v>-642900</v>
       </c>
       <c r="F26" s="3">
-        <v>-120600</v>
+        <v>-120800</v>
       </c>
       <c r="G26" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-117000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-36400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1265,25 +1317,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-670900</v>
+        <v>-287400</v>
       </c>
       <c r="E27" s="3">
-        <v>-124600</v>
+        <v>-642900</v>
       </c>
       <c r="F27" s="3">
-        <v>-120600</v>
+        <v>-120800</v>
       </c>
       <c r="G27" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-117000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-36400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,22 +1387,25 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-4500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,26 +1492,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>267200</v>
+        <v>-160900</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>259800</v>
       </c>
       <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,25 +1527,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-670900</v>
+        <v>-287400</v>
       </c>
       <c r="E33" s="3">
-        <v>-124600</v>
+        <v>-642900</v>
       </c>
       <c r="F33" s="3">
-        <v>-125300</v>
+        <v>-120800</v>
       </c>
       <c r="G33" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-121500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-36400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,25 +1597,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-670900</v>
+        <v>-287400</v>
       </c>
       <c r="E35" s="3">
-        <v>-124600</v>
+        <v>-642900</v>
       </c>
       <c r="F35" s="3">
-        <v>-125300</v>
+        <v>-120800</v>
       </c>
       <c r="G35" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-121500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-36400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1553,31 +1632,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,19 +1704,20 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>235400</v>
+        <v>474300</v>
       </c>
       <c r="E41" s="3">
-        <v>73600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>227900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>71400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,19 +1807,22 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>411100</v>
+        <v>442400</v>
       </c>
       <c r="E44" s="3">
-        <v>155300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>431300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>150600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1746,8 +1842,11 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1778,19 +1877,22 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>774600</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>276200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>751300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>267900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1810,19 +1912,22 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>12200</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1842,19 +1947,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>333000</v>
+        <v>429400</v>
       </c>
       <c r="E48" s="3">
-        <v>222800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>214100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>216000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1874,19 +1982,22 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>319600</v>
+        <v>230700</v>
       </c>
       <c r="E49" s="3">
-        <v>189100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>309300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>183400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,31 +2087,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>109100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,19 +2157,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>1439500</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>699000</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1395600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>677800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,19 +2224,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>96400</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>29300</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>34600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>28400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2126,19 +2257,22 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>220800</v>
+        <v>262600</v>
       </c>
       <c r="E58" s="3">
-        <v>159600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>235800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>154700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2158,19 +2292,22 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>23200</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>72200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>59200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>70000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2190,19 +2327,22 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>340400</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>261100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>329600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>253200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2222,19 +2362,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>169600</v>
+        <v>74500</v>
       </c>
       <c r="E61" s="3">
-        <v>59100</v>
+        <v>165200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>57300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2254,19 +2397,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>70800</v>
+        <v>7100</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>60000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,19 +2537,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>580700</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>325300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>554900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>315400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,19 +2727,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-753900</v>
+        <v>-978300</v>
       </c>
       <c r="E72" s="3">
-        <v>48900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-225200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>47500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,19 +2867,22 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>858800</v>
+        <v>617500</v>
       </c>
       <c r="E76" s="3">
-        <v>373700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>840700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>362300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2937,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,25 +2977,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-670900</v>
+        <v>-287400</v>
       </c>
       <c r="E81" s="3">
-        <v>-124600</v>
+        <v>-642900</v>
       </c>
       <c r="F81" s="3">
-        <v>-125300</v>
+        <v>-120800</v>
       </c>
       <c r="G81" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-121500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-36400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,26 +3029,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79300</v>
+        <v>199900</v>
       </c>
       <c r="E83" s="3">
-        <v>18500</v>
+        <v>76600</v>
       </c>
       <c r="F83" s="3">
-        <v>15900</v>
+        <v>17900</v>
       </c>
       <c r="G83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,25 +3237,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-678300</v>
+        <v>-254300</v>
       </c>
       <c r="E89" s="3">
-        <v>-67700</v>
+        <v>-658300</v>
       </c>
       <c r="F89" s="3">
-        <v>-141400</v>
+        <v>-65600</v>
       </c>
       <c r="G89" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-137100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-37000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,26 +3289,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36600</v>
+        <v>-21300</v>
       </c>
       <c r="E91" s="3">
-        <v>-42300</v>
+        <v>-34900</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-41000</v>
       </c>
       <c r="G91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,26 +3392,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-286700</v>
+        <v>-58000</v>
       </c>
       <c r="E94" s="3">
-        <v>-145400</v>
+        <v>-277600</v>
       </c>
       <c r="F94" s="3">
-        <v>-44300</v>
+        <v>-141000</v>
       </c>
       <c r="G94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,25 +3582,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>903900</v>
+        <v>550000</v>
       </c>
       <c r="E100" s="3">
-        <v>-10400</v>
+        <v>876600</v>
       </c>
       <c r="F100" s="3">
-        <v>440600</v>
+        <v>-10100</v>
       </c>
       <c r="G100" s="3">
-        <v>147400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>427300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>142900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3371,16 +3617,19 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3397,31 +3646,34 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62200</v>
+        <v>237800</v>
       </c>
       <c r="E102" s="3">
-        <v>-223500</v>
+        <v>-60200</v>
       </c>
       <c r="F102" s="3">
-        <v>254900</v>
+        <v>-216700</v>
       </c>
       <c r="G102" s="3">
-        <v>107700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>247200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>104500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -724,19 +724,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>742900</v>
+        <v>735600</v>
       </c>
       <c r="E8" s="3">
-        <v>789900</v>
+        <v>782200</v>
       </c>
       <c r="F8" s="3">
-        <v>293600</v>
+        <v>290700</v>
       </c>
       <c r="G8" s="3">
-        <v>191900</v>
+        <v>190000</v>
       </c>
       <c r="H8" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>739300</v>
+        <v>732100</v>
       </c>
       <c r="E9" s="3">
-        <v>760500</v>
+        <v>753000</v>
       </c>
       <c r="F9" s="3">
-        <v>280200</v>
+        <v>277400</v>
       </c>
       <c r="G9" s="3">
-        <v>195300</v>
+        <v>193400</v>
       </c>
       <c r="H9" s="3">
-        <v>48900</v>
+        <v>48500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -797,16 +797,16 @@
         <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="F10" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="G10" s="3">
         <v>-3400</v>
       </c>
       <c r="H10" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -996,19 +996,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200600</v>
+        <v>1188900</v>
       </c>
       <c r="E17" s="3">
-        <v>1179800</v>
+        <v>1168300</v>
       </c>
       <c r="F17" s="3">
-        <v>421100</v>
+        <v>417000</v>
       </c>
       <c r="G17" s="3">
-        <v>309000</v>
+        <v>306000</v>
       </c>
       <c r="H17" s="3">
-        <v>83100</v>
+        <v>82300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1031,19 +1031,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-457800</v>
+        <v>-453300</v>
       </c>
       <c r="E18" s="3">
-        <v>-389900</v>
+        <v>-386100</v>
       </c>
       <c r="F18" s="3">
-        <v>-127500</v>
+        <v>-126300</v>
       </c>
       <c r="G18" s="3">
-        <v>-117200</v>
+        <v>-116000</v>
       </c>
       <c r="H18" s="3">
-        <v>-35900</v>
+        <v>-35600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1081,16 +1081,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>160900</v>
+        <v>159300</v>
       </c>
       <c r="E20" s="3">
-        <v>-259800</v>
+        <v>-257200</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
@@ -1116,19 +1116,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-97000</v>
+        <v>-96000</v>
       </c>
       <c r="E21" s="3">
-        <v>-573000</v>
+        <v>-567400</v>
       </c>
       <c r="F21" s="3">
-        <v>-111500</v>
+        <v>-110400</v>
       </c>
       <c r="G21" s="3">
-        <v>-102700</v>
+        <v>-101700</v>
       </c>
       <c r="H21" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1186,19 +1186,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-296900</v>
+        <v>-294000</v>
       </c>
       <c r="E23" s="3">
-        <v>-649700</v>
+        <v>-643300</v>
       </c>
       <c r="F23" s="3">
-        <v>-129500</v>
+        <v>-128200</v>
       </c>
       <c r="G23" s="3">
-        <v>-118100</v>
+        <v>-117000</v>
       </c>
       <c r="H23" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1221,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="E24" s="3">
         <v>-6700</v>
       </c>
       <c r="F24" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="G24" s="3">
         <v>-1100</v>
@@ -1291,19 +1291,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-287400</v>
+        <v>-284600</v>
       </c>
       <c r="E26" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="F26" s="3">
-        <v>-120800</v>
+        <v>-119600</v>
       </c>
       <c r="G26" s="3">
-        <v>-117000</v>
+        <v>-115800</v>
       </c>
       <c r="H26" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1326,19 +1326,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-287400</v>
+        <v>-284600</v>
       </c>
       <c r="E27" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="F27" s="3">
-        <v>-120800</v>
+        <v>-119600</v>
       </c>
       <c r="G27" s="3">
-        <v>-117000</v>
+        <v>-115800</v>
       </c>
       <c r="H27" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1501,16 +1501,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="E32" s="3">
-        <v>259800</v>
+        <v>257200</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
@@ -1536,19 +1536,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-287400</v>
+        <v>-284600</v>
       </c>
       <c r="E33" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="F33" s="3">
-        <v>-120800</v>
+        <v>-119600</v>
       </c>
       <c r="G33" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="H33" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1606,19 +1606,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-287400</v>
+        <v>-284600</v>
       </c>
       <c r="E35" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="F35" s="3">
-        <v>-120800</v>
+        <v>-119600</v>
       </c>
       <c r="G35" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="H35" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1711,13 +1711,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>474300</v>
+        <v>469700</v>
       </c>
       <c r="E41" s="3">
-        <v>227900</v>
+        <v>225600</v>
       </c>
       <c r="F41" s="3">
-        <v>71400</v>
+        <v>70700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1816,13 +1816,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>442400</v>
+        <v>438100</v>
       </c>
       <c r="E44" s="3">
-        <v>431300</v>
+        <v>427000</v>
       </c>
       <c r="F44" s="3">
-        <v>150600</v>
+        <v>149100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1889,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>751300</v>
+        <v>743900</v>
       </c>
       <c r="F46" s="3">
-        <v>267900</v>
+        <v>265200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1924,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="F47" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1956,13 +1956,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>429400</v>
+        <v>425200</v>
       </c>
       <c r="E48" s="3">
-        <v>214100</v>
+        <v>212000</v>
       </c>
       <c r="F48" s="3">
-        <v>216000</v>
+        <v>213900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>230700</v>
+        <v>228400</v>
       </c>
       <c r="E49" s="3">
-        <v>309300</v>
+        <v>306300</v>
       </c>
       <c r="F49" s="3">
-        <v>183400</v>
+        <v>181600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>109100</v>
+        <v>108100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2169,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>1395600</v>
+        <v>1381900</v>
       </c>
       <c r="F54" s="3">
-        <v>677800</v>
+        <v>671100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2234,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2266,13 +2266,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>262600</v>
+        <v>260000</v>
       </c>
       <c r="E58" s="3">
-        <v>235800</v>
+        <v>233500</v>
       </c>
       <c r="F58" s="3">
-        <v>154700</v>
+        <v>153200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2304,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>59200</v>
+        <v>58600</v>
       </c>
       <c r="F59" s="3">
-        <v>70000</v>
+        <v>69300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2339,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>329600</v>
+        <v>326400</v>
       </c>
       <c r="F60" s="3">
-        <v>253200</v>
+        <v>250700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2371,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="E61" s="3">
-        <v>165200</v>
+        <v>163600</v>
       </c>
       <c r="F61" s="3">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="F62" s="3">
         <v>4900</v>
@@ -2549,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>554900</v>
+        <v>549500</v>
       </c>
       <c r="F66" s="3">
-        <v>315400</v>
+        <v>312300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2736,13 +2736,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-978300</v>
+        <v>-968700</v>
       </c>
       <c r="E72" s="3">
-        <v>-225200</v>
+        <v>-223000</v>
       </c>
       <c r="F72" s="3">
-        <v>47500</v>
+        <v>47000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2876,13 +2876,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>617500</v>
+        <v>611400</v>
       </c>
       <c r="E76" s="3">
-        <v>840700</v>
+        <v>832400</v>
       </c>
       <c r="F76" s="3">
-        <v>362300</v>
+        <v>358800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2986,19 +2986,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-287400</v>
+        <v>-284600</v>
       </c>
       <c r="E81" s="3">
-        <v>-642900</v>
+        <v>-636600</v>
       </c>
       <c r="F81" s="3">
-        <v>-120800</v>
+        <v>-119600</v>
       </c>
       <c r="G81" s="3">
-        <v>-121500</v>
+        <v>-120300</v>
       </c>
       <c r="H81" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3036,19 +3036,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>199900</v>
+        <v>197900</v>
       </c>
       <c r="E83" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="F83" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="G83" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3246,19 +3246,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-254300</v>
+        <v>-251800</v>
       </c>
       <c r="E89" s="3">
-        <v>-658300</v>
+        <v>-651800</v>
       </c>
       <c r="F89" s="3">
-        <v>-65600</v>
+        <v>-65000</v>
       </c>
       <c r="G89" s="3">
-        <v>-137100</v>
+        <v>-135700</v>
       </c>
       <c r="H89" s="3">
-        <v>-37000</v>
+        <v>-36600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3296,16 +3296,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="F91" s="3">
-        <v>-41000</v>
+        <v>-40600</v>
       </c>
       <c r="G91" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3401,16 +3401,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58000</v>
+        <v>-57400</v>
       </c>
       <c r="E94" s="3">
-        <v>-277600</v>
+        <v>-274900</v>
       </c>
       <c r="F94" s="3">
-        <v>-141000</v>
+        <v>-139600</v>
       </c>
       <c r="G94" s="3">
-        <v>-43000</v>
+        <v>-42600</v>
       </c>
       <c r="H94" s="3">
         <v>-1500</v>
@@ -3591,19 +3591,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>550000</v>
+        <v>544700</v>
       </c>
       <c r="E100" s="3">
-        <v>876600</v>
+        <v>868000</v>
       </c>
       <c r="F100" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="G100" s="3">
-        <v>427300</v>
+        <v>423100</v>
       </c>
       <c r="H100" s="3">
-        <v>142900</v>
+        <v>141500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3626,7 +3626,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -3661,19 +3661,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>237800</v>
+        <v>235400</v>
       </c>
       <c r="E102" s="3">
-        <v>-60200</v>
+        <v>-59600</v>
       </c>
       <c r="F102" s="3">
-        <v>-216700</v>
+        <v>-214600</v>
       </c>
       <c r="G102" s="3">
-        <v>247200</v>
+        <v>244800</v>
       </c>
       <c r="H102" s="3">
-        <v>104500</v>
+        <v>103400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -724,19 +724,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>735600</v>
+        <v>748900</v>
       </c>
       <c r="E8" s="3">
-        <v>782200</v>
+        <v>796400</v>
       </c>
       <c r="F8" s="3">
-        <v>290700</v>
+        <v>296000</v>
       </c>
       <c r="G8" s="3">
-        <v>190000</v>
+        <v>193400</v>
       </c>
       <c r="H8" s="3">
-        <v>46700</v>
+        <v>47600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>732100</v>
+        <v>745300</v>
       </c>
       <c r="E9" s="3">
-        <v>753000</v>
+        <v>766700</v>
       </c>
       <c r="F9" s="3">
-        <v>277400</v>
+        <v>282400</v>
       </c>
       <c r="G9" s="3">
-        <v>193400</v>
+        <v>196900</v>
       </c>
       <c r="H9" s="3">
-        <v>48500</v>
+        <v>49300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -794,19 +794,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E10" s="3">
-        <v>29100</v>
+        <v>29700</v>
       </c>
       <c r="F10" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="G10" s="3">
         <v>-3400</v>
       </c>
       <c r="H10" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -996,19 +996,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1188900</v>
+        <v>1210400</v>
       </c>
       <c r="E17" s="3">
-        <v>1168300</v>
+        <v>1189400</v>
       </c>
       <c r="F17" s="3">
-        <v>417000</v>
+        <v>424600</v>
       </c>
       <c r="G17" s="3">
-        <v>306000</v>
+        <v>311500</v>
       </c>
       <c r="H17" s="3">
-        <v>82300</v>
+        <v>83800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1031,19 +1031,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-453300</v>
+        <v>-461500</v>
       </c>
       <c r="E18" s="3">
-        <v>-386100</v>
+        <v>-393100</v>
       </c>
       <c r="F18" s="3">
-        <v>-126300</v>
+        <v>-128600</v>
       </c>
       <c r="G18" s="3">
-        <v>-116000</v>
+        <v>-118100</v>
       </c>
       <c r="H18" s="3">
-        <v>-35600</v>
+        <v>-36200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1081,16 +1081,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>159300</v>
+        <v>162200</v>
       </c>
       <c r="E20" s="3">
-        <v>-257200</v>
+        <v>-261900</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
@@ -1116,19 +1116,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-96000</v>
+        <v>-97800</v>
       </c>
       <c r="E21" s="3">
-        <v>-567400</v>
+        <v>-577700</v>
       </c>
       <c r="F21" s="3">
-        <v>-110400</v>
+        <v>-112400</v>
       </c>
       <c r="G21" s="3">
-        <v>-101700</v>
+        <v>-103500</v>
       </c>
       <c r="H21" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1186,19 +1186,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-294000</v>
+        <v>-299300</v>
       </c>
       <c r="E23" s="3">
-        <v>-643300</v>
+        <v>-654900</v>
       </c>
       <c r="F23" s="3">
-        <v>-128200</v>
+        <v>-130500</v>
       </c>
       <c r="G23" s="3">
-        <v>-117000</v>
+        <v>-119100</v>
       </c>
       <c r="H23" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1221,16 +1221,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="E24" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="F24" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="G24" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="E26" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="F26" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G26" s="3">
-        <v>-115800</v>
+        <v>-117900</v>
       </c>
       <c r="H26" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1326,19 +1326,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="E27" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="F27" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G27" s="3">
-        <v>-115800</v>
+        <v>-117900</v>
       </c>
       <c r="H27" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1501,16 +1501,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-159300</v>
+        <v>-162200</v>
       </c>
       <c r="E32" s="3">
-        <v>257200</v>
+        <v>261900</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
@@ -1536,19 +1536,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="E33" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="F33" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G33" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="H33" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1606,19 +1606,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="E35" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="F35" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G35" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="H35" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1711,13 +1711,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>469700</v>
+        <v>478200</v>
       </c>
       <c r="E41" s="3">
-        <v>225600</v>
+        <v>229700</v>
       </c>
       <c r="F41" s="3">
-        <v>70700</v>
+        <v>72000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1816,13 +1816,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>438100</v>
+        <v>446000</v>
       </c>
       <c r="E44" s="3">
-        <v>427000</v>
+        <v>434800</v>
       </c>
       <c r="F44" s="3">
-        <v>149100</v>
+        <v>151800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1889,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>743900</v>
+        <v>757400</v>
       </c>
       <c r="F46" s="3">
-        <v>265200</v>
+        <v>270000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1924,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="F47" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1956,13 +1956,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>425200</v>
+        <v>432900</v>
       </c>
       <c r="E48" s="3">
-        <v>212000</v>
+        <v>215800</v>
       </c>
       <c r="F48" s="3">
-        <v>213900</v>
+        <v>217800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>228400</v>
+        <v>232500</v>
       </c>
       <c r="E49" s="3">
-        <v>306300</v>
+        <v>311900</v>
       </c>
       <c r="F49" s="3">
-        <v>181600</v>
+        <v>184900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>108100</v>
+        <v>110000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2169,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>1381900</v>
+        <v>1406900</v>
       </c>
       <c r="F54" s="3">
-        <v>671100</v>
+        <v>683300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2234,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>34200</v>
+        <v>34800</v>
       </c>
       <c r="F57" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2266,13 +2266,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>260000</v>
+        <v>264700</v>
       </c>
       <c r="E58" s="3">
-        <v>233500</v>
+        <v>237700</v>
       </c>
       <c r="F58" s="3">
-        <v>153200</v>
+        <v>156000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2304,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="F59" s="3">
-        <v>69300</v>
+        <v>70600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2339,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>326400</v>
+        <v>332300</v>
       </c>
       <c r="F60" s="3">
-        <v>250700</v>
+        <v>255200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2371,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73800</v>
+        <v>75100</v>
       </c>
       <c r="E61" s="3">
-        <v>163600</v>
+        <v>166600</v>
       </c>
       <c r="F61" s="3">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E62" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2549,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>549500</v>
+        <v>559400</v>
       </c>
       <c r="F66" s="3">
-        <v>312300</v>
+        <v>318000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2736,13 +2736,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-968700</v>
+        <v>-986200</v>
       </c>
       <c r="E72" s="3">
-        <v>-223000</v>
+        <v>-227000</v>
       </c>
       <c r="F72" s="3">
-        <v>47000</v>
+        <v>47800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2876,13 +2876,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>611400</v>
+        <v>622500</v>
       </c>
       <c r="E76" s="3">
-        <v>832400</v>
+        <v>847500</v>
       </c>
       <c r="F76" s="3">
-        <v>358800</v>
+        <v>365300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2986,19 +2986,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="E81" s="3">
-        <v>-636600</v>
+        <v>-648100</v>
       </c>
       <c r="F81" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G81" s="3">
-        <v>-120300</v>
+        <v>-122500</v>
       </c>
       <c r="H81" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3036,19 +3036,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="E83" s="3">
-        <v>75900</v>
+        <v>77300</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="H83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3246,19 +3246,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-251800</v>
+        <v>-256400</v>
       </c>
       <c r="E89" s="3">
-        <v>-651800</v>
+        <v>-663600</v>
       </c>
       <c r="F89" s="3">
-        <v>-65000</v>
+        <v>-66200</v>
       </c>
       <c r="G89" s="3">
-        <v>-135700</v>
+        <v>-138200</v>
       </c>
       <c r="H89" s="3">
-        <v>-36600</v>
+        <v>-37300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3296,16 +3296,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="E91" s="3">
-        <v>-34500</v>
+        <v>-35100</v>
       </c>
       <c r="F91" s="3">
-        <v>-40600</v>
+        <v>-41400</v>
       </c>
       <c r="G91" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3401,16 +3401,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="E94" s="3">
-        <v>-274900</v>
+        <v>-279800</v>
       </c>
       <c r="F94" s="3">
-        <v>-139600</v>
+        <v>-142100</v>
       </c>
       <c r="G94" s="3">
-        <v>-42600</v>
+        <v>-43300</v>
       </c>
       <c r="H94" s="3">
         <v>-1500</v>
@@ -3591,19 +3591,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>544700</v>
+        <v>554500</v>
       </c>
       <c r="E100" s="3">
-        <v>868000</v>
+        <v>883700</v>
       </c>
       <c r="F100" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="G100" s="3">
-        <v>423100</v>
+        <v>430700</v>
       </c>
       <c r="H100" s="3">
-        <v>141500</v>
+        <v>144100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3625,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-8200</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -3661,19 +3661,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>235400</v>
+        <v>239700</v>
       </c>
       <c r="E102" s="3">
-        <v>-59600</v>
+        <v>-60700</v>
       </c>
       <c r="F102" s="3">
-        <v>-214600</v>
+        <v>-218400</v>
       </c>
       <c r="G102" s="3">
-        <v>244800</v>
+        <v>249200</v>
       </c>
       <c r="H102" s="3">
-        <v>103400</v>
+        <v>105300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,28 +719,31 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>748900</v>
+        <v>1549300</v>
       </c>
       <c r="E8" s="3">
-        <v>796400</v>
+        <v>779100</v>
       </c>
       <c r="F8" s="3">
-        <v>296000</v>
+        <v>813200</v>
       </c>
       <c r="G8" s="3">
-        <v>193400</v>
+        <v>308000</v>
       </c>
       <c r="H8" s="3">
-        <v>47600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>201300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>49500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -753,28 +757,31 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>745300</v>
+        <v>1524100</v>
       </c>
       <c r="E9" s="3">
-        <v>766700</v>
+        <v>775000</v>
       </c>
       <c r="F9" s="3">
-        <v>282400</v>
+        <v>784300</v>
       </c>
       <c r="G9" s="3">
-        <v>196900</v>
+        <v>293900</v>
       </c>
       <c r="H9" s="3">
-        <v>49300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>204800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>51300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -788,29 +795,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3600</v>
+        <v>25200</v>
       </c>
       <c r="E10" s="3">
-        <v>29700</v>
+        <v>4100</v>
       </c>
       <c r="F10" s="3">
-        <v>13500</v>
+        <v>28900</v>
       </c>
       <c r="G10" s="3">
-        <v>-3400</v>
+        <v>14100</v>
       </c>
       <c r="H10" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,31 +925,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>384900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>148700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -943,31 +963,34 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>62000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,28 +1016,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1210400</v>
+        <v>2378700</v>
       </c>
       <c r="E17" s="3">
-        <v>1189400</v>
+        <v>1259600</v>
       </c>
       <c r="F17" s="3">
-        <v>424600</v>
+        <v>1201500</v>
       </c>
       <c r="G17" s="3">
-        <v>311500</v>
+        <v>441800</v>
       </c>
       <c r="H17" s="3">
-        <v>83800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>324200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>87200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1025,28 +1052,31 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-461500</v>
+        <v>-829400</v>
       </c>
       <c r="E18" s="3">
-        <v>-393100</v>
+        <v>-480500</v>
       </c>
       <c r="F18" s="3">
-        <v>-128600</v>
+        <v>-388300</v>
       </c>
       <c r="G18" s="3">
-        <v>-118100</v>
+        <v>-133800</v>
       </c>
       <c r="H18" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-122900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-37700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,29 +1108,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>162200</v>
+        <v>243600</v>
       </c>
       <c r="E20" s="3">
-        <v>-261900</v>
+        <v>196700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-271200</v>
       </c>
       <c r="G20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,28 +1144,31 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-97800</v>
+        <v>-114100</v>
       </c>
       <c r="E21" s="3">
-        <v>-577700</v>
+        <v>-74500</v>
       </c>
       <c r="F21" s="3">
-        <v>-112400</v>
+        <v>-579000</v>
       </c>
       <c r="G21" s="3">
-        <v>-103500</v>
+        <v>-117000</v>
       </c>
       <c r="H21" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-107700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-35100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,31 +1182,34 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>66200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>28000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1180,28 +1220,31 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-299300</v>
+        <v>-652000</v>
       </c>
       <c r="E23" s="3">
-        <v>-654900</v>
+        <v>-311800</v>
       </c>
       <c r="F23" s="3">
-        <v>-130500</v>
+        <v>-659400</v>
       </c>
       <c r="G23" s="3">
-        <v>-119100</v>
+        <v>-135800</v>
       </c>
       <c r="H23" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-123900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-38200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1215,28 +1258,31 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="E24" s="3">
-        <v>-6800</v>
+        <v>-12200</v>
       </c>
       <c r="F24" s="3">
-        <v>-8700</v>
+        <v>-2700</v>
       </c>
       <c r="G24" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,28 +1334,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-289800</v>
+        <v>-642900</v>
       </c>
       <c r="E26" s="3">
-        <v>-648100</v>
+        <v>-299600</v>
       </c>
       <c r="F26" s="3">
-        <v>-121800</v>
+        <v>-656700</v>
       </c>
       <c r="G26" s="3">
-        <v>-117900</v>
+        <v>-126700</v>
       </c>
       <c r="H26" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-122700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-38200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1320,28 +1372,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-289800</v>
+        <v>-642900</v>
       </c>
       <c r="E27" s="3">
-        <v>-648100</v>
+        <v>-299600</v>
       </c>
       <c r="F27" s="3">
-        <v>-121800</v>
+        <v>-656700</v>
       </c>
       <c r="G27" s="3">
-        <v>-117900</v>
+        <v>-126700</v>
       </c>
       <c r="H27" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-122700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-38200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,25 +1448,28 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>-230500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-4700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,29 +1562,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-162200</v>
+        <v>-243600</v>
       </c>
       <c r="E32" s="3">
-        <v>261900</v>
+        <v>-196700</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>271200</v>
       </c>
       <c r="G32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,28 +1600,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-289800</v>
+        <v>-873400</v>
       </c>
       <c r="E33" s="3">
-        <v>-648100</v>
+        <v>-299600</v>
       </c>
       <c r="F33" s="3">
-        <v>-121800</v>
+        <v>-674400</v>
       </c>
       <c r="G33" s="3">
-        <v>-122500</v>
+        <v>-126700</v>
       </c>
       <c r="H33" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-127400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-38200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,28 +1676,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-289800</v>
+        <v>-873400</v>
       </c>
       <c r="E35" s="3">
-        <v>-648100</v>
+        <v>-299600</v>
       </c>
       <c r="F35" s="3">
-        <v>-121800</v>
+        <v>-674400</v>
       </c>
       <c r="G35" s="3">
-        <v>-122500</v>
+        <v>-126700</v>
       </c>
       <c r="H35" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-127400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-38200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1635,34 +1714,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,22 +1791,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>478200</v>
+        <v>305100</v>
       </c>
       <c r="E41" s="3">
-        <v>229700</v>
+        <v>497800</v>
       </c>
       <c r="F41" s="3">
-        <v>72000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>239000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>74900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,22 +1903,25 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>446000</v>
+        <v>288600</v>
       </c>
       <c r="E44" s="3">
-        <v>434800</v>
+        <v>464600</v>
       </c>
       <c r="F44" s="3">
-        <v>151800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>452400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>158000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1845,31 +1941,34 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>81700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1880,22 +1979,25 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>745100</v>
       </c>
       <c r="E46" s="3">
-        <v>757400</v>
+        <v>1095000</v>
       </c>
       <c r="F46" s="3">
-        <v>270000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>788000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>281000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1915,22 +2017,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>11000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1950,22 +2055,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>432900</v>
+        <v>299700</v>
       </c>
       <c r="E48" s="3">
-        <v>215800</v>
+        <v>450000</v>
       </c>
       <c r="F48" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>339000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>226600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1985,22 +2093,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>232500</v>
+        <v>20300</v>
       </c>
       <c r="E49" s="3">
-        <v>311900</v>
+        <v>242400</v>
       </c>
       <c r="F49" s="3">
-        <v>184900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>324500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>192400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,34 +2207,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>110000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,22 +2283,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>1073200</v>
       </c>
       <c r="E54" s="3">
-        <v>1406900</v>
+        <v>1799800</v>
       </c>
       <c r="F54" s="3">
-        <v>683300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1463900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>710900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,22 +2355,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>34800</v>
+        <v>173900</v>
       </c>
       <c r="F57" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>29800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2260,22 +2391,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>264700</v>
+        <v>239500</v>
       </c>
       <c r="E58" s="3">
-        <v>237700</v>
+        <v>304600</v>
       </c>
       <c r="F58" s="3">
-        <v>156000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>247400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>162300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2295,22 +2429,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>162800</v>
       </c>
       <c r="E59" s="3">
-        <v>59700</v>
+        <v>8000</v>
       </c>
       <c r="F59" s="3">
-        <v>70600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>62100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>73400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2330,22 +2467,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>424800</v>
       </c>
       <c r="E60" s="3">
-        <v>332300</v>
+        <v>486500</v>
       </c>
       <c r="F60" s="3">
-        <v>255200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>345700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>265600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2365,22 +2505,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75100</v>
+        <v>546800</v>
       </c>
       <c r="E61" s="3">
-        <v>166600</v>
+        <v>644800</v>
       </c>
       <c r="F61" s="3">
-        <v>57800</v>
+        <v>173300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>60200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2400,22 +2543,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>60500</v>
+        <v>19000</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>63000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,22 +2695,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>983100</v>
       </c>
       <c r="E66" s="3">
-        <v>559400</v>
+        <v>1150300</v>
       </c>
       <c r="F66" s="3">
-        <v>318000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>582100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>330900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,22 +2901,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-986200</v>
+        <v>-1064600</v>
       </c>
       <c r="E72" s="3">
-        <v>-227000</v>
+        <v>-502100</v>
       </c>
       <c r="F72" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-236200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>49800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,22 +3053,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>622500</v>
+        <v>90100</v>
       </c>
       <c r="E76" s="3">
-        <v>847500</v>
+        <v>649500</v>
       </c>
       <c r="F76" s="3">
-        <v>365300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>881800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>380100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3129,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,28 +3172,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-289800</v>
+        <v>-873400</v>
       </c>
       <c r="E81" s="3">
-        <v>-648100</v>
+        <v>-299600</v>
       </c>
       <c r="F81" s="3">
-        <v>-121800</v>
+        <v>-674400</v>
       </c>
       <c r="G81" s="3">
-        <v>-122500</v>
+        <v>-126700</v>
       </c>
       <c r="H81" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-127400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-38200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,28 +3228,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>201500</v>
+        <v>471700</v>
       </c>
       <c r="E83" s="3">
-        <v>77300</v>
+        <v>209300</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>80400</v>
       </c>
       <c r="G83" s="3">
-        <v>15600</v>
+        <v>18800</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,28 +3454,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-256400</v>
+        <v>-310700</v>
       </c>
       <c r="E89" s="3">
-        <v>-663600</v>
+        <v>-265500</v>
       </c>
       <c r="F89" s="3">
-        <v>-66200</v>
+        <v>-690500</v>
       </c>
       <c r="G89" s="3">
-        <v>-138200</v>
+        <v>-68900</v>
       </c>
       <c r="H89" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-143800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-38800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,31 +3510,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21500</v>
+        <v>-18100</v>
       </c>
       <c r="E91" s="3">
-        <v>-35100</v>
+        <v>-33700</v>
       </c>
       <c r="F91" s="3">
-        <v>-41400</v>
+        <v>-4200</v>
       </c>
       <c r="G91" s="3">
-        <v>-21400</v>
+        <v>-39500</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-18600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,28 +3622,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58400</v>
+        <v>-93700</v>
       </c>
       <c r="E94" s="3">
-        <v>-279800</v>
+        <v>-61500</v>
       </c>
       <c r="F94" s="3">
-        <v>-142100</v>
+        <v>-291200</v>
       </c>
       <c r="G94" s="3">
-        <v>-43300</v>
+        <v>-147900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-45100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3828,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>554500</v>
+        <v>471900</v>
       </c>
       <c r="E100" s="3">
-        <v>883700</v>
+        <v>577000</v>
       </c>
       <c r="F100" s="3">
-        <v>-10100</v>
+        <v>919500</v>
       </c>
       <c r="G100" s="3">
-        <v>430700</v>
+        <v>-10500</v>
       </c>
       <c r="H100" s="3">
-        <v>144100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>448200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>149900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,19 +3866,22 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>14000</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3649,34 +3898,37 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>239700</v>
+        <v>81500</v>
       </c>
       <c r="E102" s="3">
-        <v>-60700</v>
+        <v>258800</v>
       </c>
       <c r="F102" s="3">
-        <v>-218400</v>
+        <v>-63200</v>
       </c>
       <c r="G102" s="3">
-        <v>249200</v>
+        <v>-227300</v>
       </c>
       <c r="H102" s="3">
-        <v>105300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>259300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>109600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,31 +723,34 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1549300</v>
+        <v>530500</v>
       </c>
       <c r="E8" s="3">
-        <v>779100</v>
+        <v>1582400</v>
       </c>
       <c r="F8" s="3">
-        <v>813200</v>
+        <v>739100</v>
       </c>
       <c r="G8" s="3">
-        <v>308000</v>
+        <v>830600</v>
       </c>
       <c r="H8" s="3">
-        <v>201300</v>
+        <v>314500</v>
       </c>
       <c r="I8" s="3">
-        <v>49500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>205600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>50600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -760,31 +764,34 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1524100</v>
+        <v>501600</v>
       </c>
       <c r="E9" s="3">
-        <v>775000</v>
+        <v>1556700</v>
       </c>
       <c r="F9" s="3">
-        <v>784300</v>
+        <v>731900</v>
       </c>
       <c r="G9" s="3">
-        <v>293900</v>
+        <v>801100</v>
       </c>
       <c r="H9" s="3">
-        <v>204800</v>
+        <v>300200</v>
       </c>
       <c r="I9" s="3">
-        <v>51300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>209200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>52400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -798,31 +805,34 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25200</v>
+        <v>28900</v>
       </c>
       <c r="E10" s="3">
-        <v>4100</v>
+        <v>25700</v>
       </c>
       <c r="F10" s="3">
-        <v>28900</v>
+        <v>7200</v>
       </c>
       <c r="G10" s="3">
-        <v>14100</v>
+        <v>29500</v>
       </c>
       <c r="H10" s="3">
-        <v>-3600</v>
+        <v>14400</v>
       </c>
       <c r="I10" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>-3700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-1900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,19 +945,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>384900</v>
+        <v>48400</v>
       </c>
       <c r="E14" s="3">
-        <v>148700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>393100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>318000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -954,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -966,19 +986,22 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62500</v>
+        <v>25700</v>
       </c>
       <c r="E15" s="3">
-        <v>62000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>63800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>83400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -992,8 +1015,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,31 +1043,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2378700</v>
+        <v>701900</v>
       </c>
       <c r="E17" s="3">
-        <v>1259600</v>
+        <v>2429500</v>
       </c>
       <c r="F17" s="3">
-        <v>1201500</v>
+        <v>1176800</v>
       </c>
       <c r="G17" s="3">
-        <v>441800</v>
+        <v>1227100</v>
       </c>
       <c r="H17" s="3">
-        <v>324200</v>
+        <v>451200</v>
       </c>
       <c r="I17" s="3">
-        <v>87200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>331100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>89100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1055,31 +1082,34 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-829400</v>
+        <v>-171400</v>
       </c>
       <c r="E18" s="3">
-        <v>-480500</v>
+        <v>-847200</v>
       </c>
       <c r="F18" s="3">
-        <v>-388300</v>
+        <v>-437700</v>
       </c>
       <c r="G18" s="3">
-        <v>-133800</v>
+        <v>-396500</v>
       </c>
       <c r="H18" s="3">
-        <v>-122900</v>
+        <v>-136600</v>
       </c>
       <c r="I18" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-125500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-38500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,32 +1142,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>243600</v>
+        <v>21600</v>
       </c>
       <c r="E20" s="3">
-        <v>196700</v>
+        <v>248800</v>
       </c>
       <c r="F20" s="3">
-        <v>-271200</v>
+        <v>227600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2000</v>
+        <v>-277000</v>
       </c>
       <c r="H20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,31 +1181,34 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-114100</v>
+        <v>-96700</v>
       </c>
       <c r="E21" s="3">
-        <v>-74500</v>
+        <v>-116600</v>
       </c>
       <c r="F21" s="3">
-        <v>-579000</v>
+        <v>3600</v>
       </c>
       <c r="G21" s="3">
-        <v>-117000</v>
+        <v>-591400</v>
       </c>
       <c r="H21" s="3">
-        <v>-107700</v>
+        <v>-119500</v>
       </c>
       <c r="I21" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-110000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-35800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1185,19 +1222,22 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66200</v>
+        <v>41800</v>
       </c>
       <c r="E22" s="3">
-        <v>28000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>67600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>52200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1211,8 +1251,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1223,31 +1263,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-652000</v>
+        <v>-191700</v>
       </c>
       <c r="E23" s="3">
-        <v>-311800</v>
+        <v>-665900</v>
       </c>
       <c r="F23" s="3">
-        <v>-659400</v>
+        <v>-262300</v>
       </c>
       <c r="G23" s="3">
-        <v>-135800</v>
+        <v>-673500</v>
       </c>
       <c r="H23" s="3">
-        <v>-123900</v>
+        <v>-138700</v>
       </c>
       <c r="I23" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-126500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-39000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1261,31 +1304,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-12200</v>
+        <v>-9300</v>
       </c>
       <c r="F24" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H24" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,31 +1386,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-642900</v>
+        <v>-191700</v>
       </c>
       <c r="E26" s="3">
-        <v>-299600</v>
+        <v>-656600</v>
       </c>
       <c r="F26" s="3">
-        <v>-656700</v>
+        <v>-254300</v>
       </c>
       <c r="G26" s="3">
-        <v>-126700</v>
+        <v>-670800</v>
       </c>
       <c r="H26" s="3">
-        <v>-122700</v>
+        <v>-129400</v>
       </c>
       <c r="I26" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-125300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-39000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1375,31 +1427,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-642900</v>
+        <v>-191700</v>
       </c>
       <c r="E27" s="3">
-        <v>-299600</v>
+        <v>-656600</v>
       </c>
       <c r="F27" s="3">
-        <v>-656700</v>
+        <v>-254300</v>
       </c>
       <c r="G27" s="3">
-        <v>-126700</v>
+        <v>-670800</v>
       </c>
       <c r="H27" s="3">
-        <v>-122700</v>
+        <v>-129400</v>
       </c>
       <c r="I27" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-125300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-39000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,28 +1509,31 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-230500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-235400</v>
       </c>
       <c r="F29" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+        <v>-51700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-4800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,32 +1632,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-243600</v>
+        <v>-21600</v>
       </c>
       <c r="E32" s="3">
-        <v>-196700</v>
+        <v>-248800</v>
       </c>
       <c r="F32" s="3">
-        <v>271200</v>
+        <v>-227600</v>
       </c>
       <c r="G32" s="3">
-        <v>2000</v>
+        <v>277000</v>
       </c>
       <c r="H32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,31 +1673,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-873400</v>
+        <v>-190600</v>
       </c>
       <c r="E33" s="3">
-        <v>-299600</v>
+        <v>-892000</v>
       </c>
       <c r="F33" s="3">
-        <v>-674400</v>
+        <v>-306000</v>
       </c>
       <c r="G33" s="3">
-        <v>-126700</v>
+        <v>-688800</v>
       </c>
       <c r="H33" s="3">
-        <v>-127400</v>
+        <v>-129400</v>
       </c>
       <c r="I33" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-130100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-39000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,31 +1755,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-873400</v>
+        <v>-190600</v>
       </c>
       <c r="E35" s="3">
-        <v>-299600</v>
+        <v>-892000</v>
       </c>
       <c r="F35" s="3">
-        <v>-674400</v>
+        <v>-306000</v>
       </c>
       <c r="G35" s="3">
-        <v>-126700</v>
+        <v>-688800</v>
       </c>
       <c r="H35" s="3">
-        <v>-127400</v>
+        <v>-129400</v>
       </c>
       <c r="I35" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-130100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-39000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1717,37 +1796,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,25 +1878,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305100</v>
+        <v>246600</v>
       </c>
       <c r="E41" s="3">
-        <v>497800</v>
+        <v>311600</v>
       </c>
       <c r="F41" s="3">
-        <v>239000</v>
+        <v>508400</v>
       </c>
       <c r="G41" s="3">
-        <v>74900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>244100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>76500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,25 +1999,28 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>288600</v>
+        <v>164900</v>
       </c>
       <c r="E44" s="3">
-        <v>464600</v>
+        <v>294700</v>
       </c>
       <c r="F44" s="3">
-        <v>452400</v>
+        <v>474600</v>
       </c>
       <c r="G44" s="3">
-        <v>158000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>462000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>161400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1944,16 +2040,19 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>81700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>83400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1970,8 +2069,8 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1982,25 +2081,28 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>745100</v>
+        <v>450900</v>
       </c>
       <c r="E46" s="3">
-        <v>1095000</v>
+        <v>761000</v>
       </c>
       <c r="F46" s="3">
-        <v>788000</v>
+        <v>1118400</v>
       </c>
       <c r="G46" s="3">
-        <v>281000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>804900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>287000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2122,28 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="E47" s="3">
-        <v>12500</v>
+        <v>8200</v>
       </c>
       <c r="F47" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>12600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2058,25 +2163,28 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>299700</v>
+        <v>189600</v>
       </c>
       <c r="E48" s="3">
-        <v>450000</v>
+        <v>306100</v>
       </c>
       <c r="F48" s="3">
-        <v>339000</v>
+        <v>459600</v>
       </c>
       <c r="G48" s="3">
-        <v>226600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>346200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>231400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2096,25 +2204,28 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20300</v>
+        <v>21500</v>
       </c>
       <c r="E49" s="3">
-        <v>242400</v>
+        <v>20700</v>
       </c>
       <c r="F49" s="3">
-        <v>324500</v>
+        <v>247600</v>
       </c>
       <c r="G49" s="3">
-        <v>192400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>331400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>196500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2236,11 +2356,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,25 +2409,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1073200</v>
+        <v>669600</v>
       </c>
       <c r="E54" s="3">
-        <v>1799800</v>
+        <v>1096100</v>
       </c>
       <c r="F54" s="3">
-        <v>1463900</v>
+        <v>1838300</v>
       </c>
       <c r="G54" s="3">
-        <v>710900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1495100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>726100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,25 +2486,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22500</v>
+        <v>69900</v>
       </c>
       <c r="E57" s="3">
-        <v>173900</v>
+        <v>23000</v>
       </c>
       <c r="F57" s="3">
-        <v>36300</v>
+        <v>177600</v>
       </c>
       <c r="G57" s="3">
-        <v>29800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>30500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2394,25 +2525,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239500</v>
+        <v>131000</v>
       </c>
       <c r="E58" s="3">
-        <v>304600</v>
+        <v>244600</v>
       </c>
       <c r="F58" s="3">
-        <v>247400</v>
+        <v>311100</v>
       </c>
       <c r="G58" s="3">
-        <v>162300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>252700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>165800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2432,25 +2566,28 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>162800</v>
+        <v>12000</v>
       </c>
       <c r="E59" s="3">
-        <v>8000</v>
+        <v>166200</v>
       </c>
       <c r="F59" s="3">
-        <v>62100</v>
+        <v>8200</v>
       </c>
       <c r="G59" s="3">
-        <v>73400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>63400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>75000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2470,25 +2607,28 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>424800</v>
+        <v>212900</v>
       </c>
       <c r="E60" s="3">
-        <v>486500</v>
+        <v>433800</v>
       </c>
       <c r="F60" s="3">
-        <v>345700</v>
+        <v>496900</v>
       </c>
       <c r="G60" s="3">
-        <v>265600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>353100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>271200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2508,25 +2648,28 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>546800</v>
+        <v>548200</v>
       </c>
       <c r="E61" s="3">
-        <v>644800</v>
+        <v>558500</v>
       </c>
       <c r="F61" s="3">
-        <v>173300</v>
+        <v>658600</v>
       </c>
       <c r="G61" s="3">
-        <v>60200</v>
+        <v>177000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>61400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2546,25 +2689,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11500</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>19000</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>63000</v>
+        <v>19400</v>
       </c>
       <c r="G62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,25 +2853,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>983100</v>
+        <v>768300</v>
       </c>
       <c r="E66" s="3">
-        <v>1150300</v>
+        <v>1004100</v>
       </c>
       <c r="F66" s="3">
-        <v>582100</v>
+        <v>1174900</v>
       </c>
       <c r="G66" s="3">
-        <v>330900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>594500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>337900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,25 +3075,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1064600</v>
+        <v>-1275600</v>
       </c>
       <c r="E72" s="3">
-        <v>-502100</v>
+        <v>-1087300</v>
       </c>
       <c r="F72" s="3">
-        <v>-236200</v>
+        <v>-512800</v>
       </c>
       <c r="G72" s="3">
-        <v>49800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-241300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>50800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,25 +3239,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90100</v>
+        <v>-98800</v>
       </c>
       <c r="E76" s="3">
-        <v>649500</v>
+        <v>92000</v>
       </c>
       <c r="F76" s="3">
-        <v>881800</v>
+        <v>663400</v>
       </c>
       <c r="G76" s="3">
-        <v>380100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>900700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>388200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,37 +3321,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,31 +3367,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-873400</v>
+        <v>-190600</v>
       </c>
       <c r="E81" s="3">
-        <v>-299600</v>
+        <v>-892000</v>
       </c>
       <c r="F81" s="3">
-        <v>-674400</v>
+        <v>-306000</v>
       </c>
       <c r="G81" s="3">
-        <v>-126700</v>
+        <v>-688800</v>
       </c>
       <c r="H81" s="3">
-        <v>-127400</v>
+        <v>-129400</v>
       </c>
       <c r="I81" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-130100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-39000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,31 +3427,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>471700</v>
+        <v>53200</v>
       </c>
       <c r="E83" s="3">
-        <v>209300</v>
+        <v>481800</v>
       </c>
       <c r="F83" s="3">
-        <v>80400</v>
+        <v>213800</v>
       </c>
       <c r="G83" s="3">
-        <v>18800</v>
+        <v>82100</v>
       </c>
       <c r="H83" s="3">
-        <v>16200</v>
+        <v>19200</v>
       </c>
       <c r="I83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,31 +3671,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-310700</v>
+        <v>57400</v>
       </c>
       <c r="E89" s="3">
-        <v>-265500</v>
+        <v>-317300</v>
       </c>
       <c r="F89" s="3">
-        <v>-690500</v>
+        <v>-271200</v>
       </c>
       <c r="G89" s="3">
-        <v>-68900</v>
+        <v>-705200</v>
       </c>
       <c r="H89" s="3">
-        <v>-143800</v>
+        <v>-70300</v>
       </c>
       <c r="I89" s="3">
-        <v>-38800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-146800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-39600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,34 +3731,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,32 +3852,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93700</v>
+        <v>19900</v>
       </c>
       <c r="E94" s="3">
-        <v>-61500</v>
+        <v>-95700</v>
       </c>
       <c r="F94" s="3">
-        <v>-291200</v>
+        <v>-62800</v>
       </c>
       <c r="G94" s="3">
-        <v>-147900</v>
+        <v>-297400</v>
       </c>
       <c r="H94" s="3">
-        <v>-45100</v>
+        <v>-151000</v>
       </c>
       <c r="I94" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,31 +4074,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>471900</v>
+        <v>-154800</v>
       </c>
       <c r="E100" s="3">
-        <v>577000</v>
+        <v>482000</v>
       </c>
       <c r="F100" s="3">
-        <v>919500</v>
+        <v>589300</v>
       </c>
       <c r="G100" s="3">
-        <v>-10500</v>
+        <v>939100</v>
       </c>
       <c r="H100" s="3">
-        <v>448200</v>
+        <v>-10800</v>
       </c>
       <c r="I100" s="3">
-        <v>149900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>457700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>153100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3869,23 +4115,26 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14000</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
-        <v>8800</v>
+        <v>14300</v>
       </c>
       <c r="F101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3901,37 +4150,40 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>81500</v>
+        <v>-80800</v>
       </c>
       <c r="E102" s="3">
-        <v>258800</v>
+        <v>83300</v>
       </c>
       <c r="F102" s="3">
-        <v>-63200</v>
+        <v>264300</v>
       </c>
       <c r="G102" s="3">
-        <v>-227300</v>
+        <v>-64500</v>
       </c>
       <c r="H102" s="3">
-        <v>259300</v>
+        <v>-232100</v>
       </c>
       <c r="I102" s="3">
-        <v>109600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>264800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>111900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="92">
   <si>
     <t>CZOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,35 +727,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>530500</v>
+        <v>214600</v>
       </c>
       <c r="E8" s="3">
-        <v>1582400</v>
+        <v>519300</v>
       </c>
       <c r="F8" s="3">
-        <v>739100</v>
+        <v>1549000</v>
       </c>
       <c r="G8" s="3">
-        <v>830600</v>
+        <v>723500</v>
       </c>
       <c r="H8" s="3">
-        <v>314500</v>
+        <v>813100</v>
       </c>
       <c r="I8" s="3">
-        <v>205600</v>
+        <v>307900</v>
       </c>
       <c r="J8" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K8" s="3">
         <v>50600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,35 +771,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>501600</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>1556700</v>
+        <v>491000</v>
       </c>
       <c r="F9" s="3">
-        <v>731900</v>
+        <v>1523900</v>
       </c>
       <c r="G9" s="3">
-        <v>801100</v>
+        <v>716500</v>
       </c>
       <c r="H9" s="3">
-        <v>300200</v>
+        <v>784200</v>
       </c>
       <c r="I9" s="3">
-        <v>209200</v>
+        <v>293800</v>
       </c>
       <c r="J9" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K9" s="3">
         <v>52400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,35 +815,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="3">
         <v>28900</v>
       </c>
-      <c r="E10" s="3">
-        <v>25700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>29500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>14400</v>
-      </c>
       <c r="I10" s="3">
-        <v>-3700</v>
+        <v>14100</v>
       </c>
       <c r="J10" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,22 +965,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>48400</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>393100</v>
+        <v>47400</v>
       </c>
       <c r="F14" s="3">
-        <v>318000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>384800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>311300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -977,8 +997,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -989,22 +1009,25 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>25700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>63800</v>
+        <v>25100</v>
       </c>
       <c r="F15" s="3">
-        <v>83400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>62500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>81700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1018,8 +1041,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,35 +1070,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>701900</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>2429500</v>
+        <v>687100</v>
       </c>
       <c r="F17" s="3">
-        <v>1176800</v>
+        <v>2378300</v>
       </c>
       <c r="G17" s="3">
-        <v>1227100</v>
+        <v>1152000</v>
       </c>
       <c r="H17" s="3">
-        <v>451200</v>
+        <v>1201300</v>
       </c>
       <c r="I17" s="3">
-        <v>331100</v>
+        <v>441700</v>
       </c>
       <c r="J17" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K17" s="3">
         <v>89100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,35 +1112,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-171400</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-847200</v>
+        <v>-167800</v>
       </c>
       <c r="F18" s="3">
-        <v>-437700</v>
+        <v>-829300</v>
       </c>
       <c r="G18" s="3">
-        <v>-396500</v>
+        <v>-428500</v>
       </c>
       <c r="H18" s="3">
-        <v>-136600</v>
+        <v>-388200</v>
       </c>
       <c r="I18" s="3">
-        <v>-125500</v>
+        <v>-133800</v>
       </c>
       <c r="J18" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-38500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,35 +1176,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>21600</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>248800</v>
+        <v>21100</v>
       </c>
       <c r="F20" s="3">
-        <v>227600</v>
+        <v>243600</v>
       </c>
       <c r="G20" s="3">
-        <v>-277000</v>
+        <v>222800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>-271100</v>
       </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,35 +1218,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-96700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-116600</v>
+        <v>-566200</v>
       </c>
       <c r="F21" s="3">
-        <v>3600</v>
+        <v>-194500</v>
       </c>
       <c r="G21" s="3">
-        <v>-591400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-119500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-110000</v>
+        <v>-76800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-35800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,22 +1262,25 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>41800</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>67600</v>
+        <v>41000</v>
       </c>
       <c r="F22" s="3">
-        <v>52200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>66200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>51100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1254,8 +1294,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1266,35 +1306,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-191700</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>-665900</v>
+        <v>-187600</v>
       </c>
       <c r="F23" s="3">
-        <v>-262300</v>
+        <v>-651900</v>
       </c>
       <c r="G23" s="3">
-        <v>-673500</v>
+        <v>-256800</v>
       </c>
       <c r="H23" s="3">
-        <v>-138700</v>
+        <v>-659300</v>
       </c>
       <c r="I23" s="3">
-        <v>-126500</v>
+        <v>-135800</v>
       </c>
       <c r="J23" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-39000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,34 +1350,37 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>-9300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-8000</v>
+        <v>-9100</v>
       </c>
       <c r="G24" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-9300</v>
-      </c>
       <c r="I24" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,35 +1438,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-191700</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-642800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-656600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-254300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-670800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-129400</v>
-      </c>
       <c r="I26" s="3">
-        <v>-125300</v>
+        <v>-126700</v>
       </c>
       <c r="J26" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-39000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,35 +1482,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-191700</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-642800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-656600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-254300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-670800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-129400</v>
-      </c>
       <c r="I27" s="3">
-        <v>-125300</v>
+        <v>-126700</v>
       </c>
       <c r="J27" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-39000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,31 +1570,34 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>1100</v>
       </c>
-      <c r="E29" s="3">
-        <v>-235400</v>
-      </c>
       <c r="F29" s="3">
-        <v>-51700</v>
+        <v>-230500</v>
       </c>
       <c r="G29" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+        <v>-50600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-4700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,35 +1702,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-21600</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-248800</v>
+        <v>-21100</v>
       </c>
       <c r="F32" s="3">
-        <v>-227600</v>
+        <v>-243600</v>
       </c>
       <c r="G32" s="3">
-        <v>277000</v>
+        <v>-222800</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>271100</v>
       </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,35 +1746,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-190600</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-892000</v>
+        <v>-186600</v>
       </c>
       <c r="F33" s="3">
-        <v>-306000</v>
+        <v>-873200</v>
       </c>
       <c r="G33" s="3">
-        <v>-688800</v>
+        <v>-299600</v>
       </c>
       <c r="H33" s="3">
-        <v>-129400</v>
+        <v>-674300</v>
       </c>
       <c r="I33" s="3">
-        <v>-130100</v>
+        <v>-126700</v>
       </c>
       <c r="J33" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-39000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,35 +1834,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-190600</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-892000</v>
+        <v>-186600</v>
       </c>
       <c r="F35" s="3">
-        <v>-306000</v>
+        <v>-873200</v>
       </c>
       <c r="G35" s="3">
-        <v>-688800</v>
+        <v>-299600</v>
       </c>
       <c r="H35" s="3">
-        <v>-129400</v>
+        <v>-674300</v>
       </c>
       <c r="I35" s="3">
-        <v>-130100</v>
+        <v>-126700</v>
       </c>
       <c r="J35" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-39000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,40 +1878,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,25 +1965,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>246600</v>
+        <v>241400</v>
       </c>
       <c r="E41" s="3">
-        <v>311600</v>
+        <v>305000</v>
       </c>
       <c r="F41" s="3">
-        <v>508400</v>
+        <v>497700</v>
       </c>
       <c r="G41" s="3">
-        <v>244100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>76500</v>
+        <v>239000</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,25 +2095,28 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>164900</v>
+        <v>161400</v>
       </c>
       <c r="E44" s="3">
-        <v>294700</v>
+        <v>288500</v>
       </c>
       <c r="F44" s="3">
-        <v>474600</v>
+        <v>464600</v>
       </c>
       <c r="G44" s="3">
-        <v>462000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>161400</v>
+        <v>452300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2043,8 +2139,11 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>83400</v>
+        <v>81600</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -2072,8 +2171,8 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2084,25 +2183,28 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>450900</v>
+        <v>441400</v>
       </c>
       <c r="E46" s="3">
-        <v>761000</v>
+        <v>745000</v>
       </c>
       <c r="F46" s="3">
-        <v>1118400</v>
+        <v>1094800</v>
       </c>
       <c r="G46" s="3">
-        <v>804900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>287000</v>
+        <v>787900</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2125,25 +2227,28 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E47" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F47" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="G47" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11200</v>
+        <v>12400</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2166,25 +2271,28 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>189600</v>
+        <v>185600</v>
       </c>
       <c r="E48" s="3">
-        <v>306100</v>
+        <v>299600</v>
       </c>
       <c r="F48" s="3">
-        <v>459600</v>
+        <v>449900</v>
       </c>
       <c r="G48" s="3">
-        <v>346200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>231400</v>
+        <v>338900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2315,28 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="E49" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="F49" s="3">
-        <v>247600</v>
+        <v>242400</v>
       </c>
       <c r="G49" s="3">
-        <v>331400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>196500</v>
+        <v>324400</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2359,11 +2479,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,25 +2535,28 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>669600</v>
+        <v>655500</v>
       </c>
       <c r="E54" s="3">
-        <v>1096100</v>
+        <v>1073000</v>
       </c>
       <c r="F54" s="3">
-        <v>1838300</v>
+        <v>1799600</v>
       </c>
       <c r="G54" s="3">
-        <v>1495100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>726100</v>
+        <v>1463600</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,25 +2617,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>69900</v>
+        <v>68500</v>
       </c>
       <c r="E57" s="3">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="F57" s="3">
-        <v>177600</v>
+        <v>173900</v>
       </c>
       <c r="G57" s="3">
-        <v>37000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>30500</v>
+        <v>36300</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2528,25 +2659,28 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>131000</v>
+        <v>128200</v>
       </c>
       <c r="E58" s="3">
-        <v>244600</v>
+        <v>239400</v>
       </c>
       <c r="F58" s="3">
-        <v>311100</v>
+        <v>304500</v>
       </c>
       <c r="G58" s="3">
-        <v>252700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>165800</v>
+        <v>247300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2569,25 +2703,28 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="E59" s="3">
-        <v>166200</v>
+        <v>162700</v>
       </c>
       <c r="F59" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="G59" s="3">
-        <v>63400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>75000</v>
+        <v>62100</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2610,25 +2747,28 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212900</v>
+        <v>208400</v>
       </c>
       <c r="E60" s="3">
-        <v>433800</v>
+        <v>424700</v>
       </c>
       <c r="F60" s="3">
-        <v>496900</v>
+        <v>486400</v>
       </c>
       <c r="G60" s="3">
-        <v>353100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>271200</v>
+        <v>345700</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2651,25 +2791,28 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>548200</v>
+        <v>536600</v>
       </c>
       <c r="E61" s="3">
-        <v>558500</v>
+        <v>546800</v>
       </c>
       <c r="F61" s="3">
-        <v>658600</v>
+        <v>644700</v>
       </c>
       <c r="G61" s="3">
-        <v>177000</v>
+        <v>173300</v>
       </c>
       <c r="H61" s="3">
-        <v>61400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2692,25 +2835,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E62" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F62" s="3">
-        <v>19400</v>
+        <v>19000</v>
       </c>
       <c r="G62" s="3">
-        <v>64300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5300</v>
+        <v>63000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,25 +3011,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>768300</v>
+        <v>752100</v>
       </c>
       <c r="E66" s="3">
-        <v>1004100</v>
+        <v>982900</v>
       </c>
       <c r="F66" s="3">
-        <v>1174900</v>
+        <v>1150100</v>
       </c>
       <c r="G66" s="3">
-        <v>594500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>337900</v>
+        <v>582000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,25 +3249,28 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1275600</v>
+        <v>-1248700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1087300</v>
+        <v>-1064400</v>
       </c>
       <c r="F72" s="3">
-        <v>-512800</v>
+        <v>-502000</v>
       </c>
       <c r="G72" s="3">
-        <v>-241300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>50800</v>
+        <v>-236200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,25 +3425,28 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-98800</v>
+        <v>-96700</v>
       </c>
       <c r="E76" s="3">
-        <v>92000</v>
+        <v>90100</v>
       </c>
       <c r="F76" s="3">
-        <v>663400</v>
+        <v>649400</v>
       </c>
       <c r="G76" s="3">
-        <v>900700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>388200</v>
+        <v>881700</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,40 +3513,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,35 +3562,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-190600</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-892000</v>
+        <v>-186600</v>
       </c>
       <c r="F81" s="3">
-        <v>-306000</v>
+        <v>-873200</v>
       </c>
       <c r="G81" s="3">
-        <v>-688800</v>
+        <v>-299600</v>
       </c>
       <c r="H81" s="3">
-        <v>-129400</v>
+        <v>-674300</v>
       </c>
       <c r="I81" s="3">
-        <v>-130100</v>
+        <v>-126700</v>
       </c>
       <c r="J81" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-39000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,35 +3626,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>53200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>481800</v>
+        <v>-419500</v>
       </c>
       <c r="F83" s="3">
-        <v>213800</v>
+        <v>391200</v>
       </c>
       <c r="G83" s="3">
-        <v>82100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>16500</v>
+        <v>128900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,35 +3888,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>57400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-317300</v>
+        <v>366800</v>
       </c>
       <c r="F89" s="3">
-        <v>-271200</v>
+        <v>379700</v>
       </c>
       <c r="G89" s="3">
-        <v>-705200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-70300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-146800</v>
+        <v>424900</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-39600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3753,7 +3974,7 @@
         <v>-39500</v>
       </c>
       <c r="I91" s="3">
-        <v>-18600</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3761,8 +3982,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,35 +4082,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>19900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-95700</v>
+        <v>113200</v>
       </c>
       <c r="F94" s="3">
-        <v>-62800</v>
+        <v>197400</v>
       </c>
       <c r="G94" s="3">
-        <v>-297400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-151000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-46100</v>
+        <v>229600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,35 +4320,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-154800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>482000</v>
+        <v>-623400</v>
       </c>
       <c r="F100" s="3">
-        <v>589300</v>
+        <v>-447500</v>
       </c>
       <c r="G100" s="3">
-        <v>939100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>457700</v>
+        <v>-342400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>448100</v>
+      </c>
+      <c r="K100" s="3">
         <v>153100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,22 +4364,25 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-3200</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>14300</v>
+        <v>-17200</v>
       </c>
       <c r="F101" s="3">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1000</v>
+        <v>9800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4153,41 +4402,44 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-80800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>83300</v>
+        <v>-160600</v>
       </c>
       <c r="F102" s="3">
-        <v>264300</v>
+        <v>144600</v>
       </c>
       <c r="G102" s="3">
-        <v>-64500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-232100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>264800</v>
+        <v>321900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K102" s="3">
         <v>111900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
